--- a/Piano di Progetto/Preventivo/PrototipazioneDettaglio.Orario.xlsx
+++ b/Piano di Progetto/Preventivo/PrototipazioneDettaglio.Orario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panoz\Documents\GitHub\Marvin\Piano di Progetto\Preventivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3EBDFA-7CFF-45AD-85EB-6D5221A4B704}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D175AF91-7CF5-4A83-B82A-C9AE0DC50535}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{A9C5908B-2465-420D-9242-B7F005395B64}"/>
   </bookViews>
@@ -247,6 +247,1176 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Responsabile</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Andrea Favero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Eleonora Thiella</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Federico Caldart</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Giovanni Cavallin</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Giovanni Dalla Riva</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Lorenzo Menegon</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Stefano Panozzo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE89-4855-8435-AC49914E3391}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Amministratore</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Andrea Favero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Eleonora Thiella</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Federico Caldart</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Giovanni Cavallin</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Giovanni Dalla Riva</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Lorenzo Menegon</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Stefano Panozzo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AE89-4855-8435-AC49914E3391}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Analista</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Andrea Favero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Eleonora Thiella</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Federico Caldart</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Giovanni Cavallin</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Giovanni Dalla Riva</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Lorenzo Menegon</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Stefano Panozzo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AE89-4855-8435-AC49914E3391}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Progettista</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Andrea Favero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Eleonora Thiella</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Federico Caldart</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Giovanni Cavallin</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Giovanni Dalla Riva</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Lorenzo Menegon</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Stefano Panozzo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AE89-4855-8435-AC49914E3391}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Programmatore</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Andrea Favero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Eleonora Thiella</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Federico Caldart</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Giovanni Cavallin</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Giovanni Dalla Riva</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Lorenzo Menegon</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Stefano Panozzo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AE89-4855-8435-AC49914E3391}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Verificatore</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Andrea Favero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Eleonora Thiella</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Federico Caldart</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Giovanni Cavallin</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Giovanni Dalla Riva</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Lorenzo Menegon</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Stefano Panozzo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AE89-4855-8435-AC49914E3391}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="530354464"/>
+        <c:axId val="530351512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="530354464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530351512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="530351512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530354464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>386953</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>456008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>101203</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>282177</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A8169A7-A9FC-4AD2-B637-DF15C00A22ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,7 +1719,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:G11"/>
+      <selection activeCell="G2" activeCellId="6" sqref="A2:A8 B2:B8 C2:C8 D2:D8 E2:E8 F2:F8 G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,7 +1903,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="14">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F11" s="14">
         <v>10</v>
@@ -745,5 +1915,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Piano di Progetto/Preventivo/PrototipazioneDettaglio.Orario.xlsx
+++ b/Piano di Progetto/Preventivo/PrototipazioneDettaglio.Orario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panoz\Documents\GitHub\Marvin\Piano di Progetto\Preventivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D175AF91-7CF5-4A83-B82A-C9AE0DC50535}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AE59FC-0920-4413-B2DB-DE1738E60189}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{A9C5908B-2465-420D-9242-B7F005395B64}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>Nome</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>TOTALE</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -321,6 +324,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -381,6 +405,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -441,6 +486,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -501,6 +567,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -561,6 +648,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -621,6 +729,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1382,16 +1511,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>386953</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>456008</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>101203</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>282177</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>583405</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1719,7 +1848,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G2" activeCellId="6" sqref="A2:A8 B2:B8 C2:C8 D2:D8 E2:E8 F2:F8 G2:G8"/>
+      <selection activeCell="H9" sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1758,105 +1887,189 @@
       <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="1"/>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H2" s="5">
         <f>SUM(B2:G2)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="4"/>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>3</v>
+      </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3:H8" si="0">SUM(B3:G3)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="1"/>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
       <c r="H4" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="3"/>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
       <c r="H5" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="1"/>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
       <c r="H6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="3"/>
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
+      <c r="B8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="9">
+        <v>2</v>
+      </c>
       <c r="H8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
@@ -1865,52 +2078,40 @@
       </c>
       <c r="B9" s="7">
         <f>SUM(B2:B8)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" ref="C9:H9" si="1">SUM(C2:C8)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="14">
-        <v>5</v>
-      </c>
-      <c r="C11" s="14">
-        <v>5</v>
-      </c>
-      <c r="D11" s="14">
-        <v>5</v>
-      </c>
-      <c r="E11" s="14">
-        <v>35</v>
-      </c>
-      <c r="F11" s="14">
-        <v>10</v>
-      </c>
-      <c r="G11" s="14">
-        <v>15</v>
-      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Piano di Progetto/Preventivo/PrototipazioneDettaglio.Orario.xlsx
+++ b/Piano di Progetto/Preventivo/PrototipazioneDettaglio.Orario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panoz\Documents\GitHub\Marvin\Piano di Progetto\Preventivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AE59FC-0920-4413-B2DB-DE1738E60189}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FFAB94-75C0-493C-9686-2C68CE03B08B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{A9C5908B-2465-420D-9242-B7F005395B64}"/>
   </bookViews>
@@ -801,7 +801,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -902,7 +902,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1847,7 +1847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1526DCFC-2621-45BC-859A-8A7F0D00817C}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H9" sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
